--- a/托福/托福复习计划 .xlsx
+++ b/托福/托福复习计划 .xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="13635" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>每天</t>
   </si>
@@ -43,66 +43,71 @@
     <t>TPO3</t>
   </si>
   <si>
-    <t>TPO19</t>
-  </si>
-  <si>
-    <t>TPO20</t>
-  </si>
-  <si>
-    <t>TPO21</t>
-  </si>
-  <si>
-    <t>TPO26</t>
-  </si>
-  <si>
     <t>请假</t>
   </si>
   <si>
-    <t>TPO32</t>
-  </si>
-  <si>
-    <t>TPO31</t>
-  </si>
-  <si>
-    <t>TPO30</t>
-  </si>
-  <si>
-    <t>TPO29</t>
-  </si>
-  <si>
-    <t>TPO28</t>
-  </si>
-  <si>
-    <t>TPO27</t>
-  </si>
-  <si>
-    <t>TPO25</t>
-  </si>
-  <si>
-    <t>TPO24</t>
-  </si>
-  <si>
-    <t>TPO23</t>
-  </si>
-  <si>
-    <t>TPO22</t>
-  </si>
-  <si>
-    <t>TPO18</t>
-  </si>
-  <si>
-    <t>TPO17</t>
+    <t>背单词；口语</t>
+  </si>
+  <si>
+    <t>背单词；写口语段子；做一套TPO</t>
+  </si>
+  <si>
+    <t>背单词</t>
+  </si>
+  <si>
+    <t>看一遍长难句</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部一遍听力题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总结听力题型</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>口语书</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>写作书;单词过一遍；晚上一套题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -124,6 +129,20 @@
       <sz val="11"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -187,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -201,17 +220,20 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -219,6 +241,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -265,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,9 +327,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,6 +362,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,22 +538,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="58.42578125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="31.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="58.375" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -532,204 +564,186 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>42295</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>42296</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>42297</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>42298</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>42299</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>42300</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A8" s="7">
+      <c r="B7" s="9"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>42301</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="7">
+      <c r="B8" s="9"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>42302</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>42303</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B10" s="9"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>42304</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B11" s="9"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>42305</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B12" s="9"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>42306</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B13" s="9"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>42307</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A15" s="7">
+      <c r="B14" s="9"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>42308</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A16" s="7">
+      <c r="B15" s="9"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>42309</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B16" s="9"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>42310</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B17" s="9"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>42311</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B18" s="9"/>
+      <c r="C18" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>42312</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B19" s="9"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>42313</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>42314</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A22" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>42315</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A23" s="8">
+      <c r="B22" s="9"/>
+      <c r="C22" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
         <v>42316</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
@@ -738,31 +752,34 @@
   <mergeCells count="1">
     <mergeCell ref="B2:B23"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/托福/托福复习计划 .xlsx
+++ b/托福/托福复习计划 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>每天</t>
   </si>
@@ -28,55 +28,11 @@
   </si>
   <si>
     <t>考试</t>
-  </si>
-  <si>
-    <t>杨鹏长难句；
-背单词；</t>
-  </si>
-  <si>
-    <t>TPO1</t>
-  </si>
-  <si>
-    <t>TPO2</t>
-  </si>
-  <si>
-    <t>TPO3</t>
-  </si>
-  <si>
-    <t>请假</t>
-  </si>
-  <si>
-    <t>背单词；口语</t>
-  </si>
-  <si>
-    <t>背单词；写口语段子；做一套TPO</t>
-  </si>
-  <si>
-    <t>背单词</t>
-  </si>
-  <si>
-    <t>看一遍长难句</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全部一遍听力题</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>;</t>
+      <t xml:space="preserve">TPO </t>
     </r>
     <r>
       <rPr>
@@ -86,24 +42,98 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>总结听力题型</t>
+      <t>听力</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>口语书</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>写作书;单词过一遍；晚上一套题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加速</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文范文大全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典加试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习作文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阅读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单词题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口语练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨鹏长难句；</t>
+  </si>
+  <si>
+    <t>背单词；</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,19 +144,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF555555"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -145,7 +162,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -220,20 +243,17 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,193 +586,177 @@
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>42295</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>42341</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>42296</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>42342</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>42297</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>42343</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>42298</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>42344</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>42299</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>42345</v>
+      </c>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>42300</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="1"/>
+        <v>42346</v>
+      </c>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>42301</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="8">
+        <v>42347</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>42302</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="8">
+        <v>42348</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>42303</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="8">
+        <v>42349</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>42304</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="8">
+        <v>42350</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>42305</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="8">
+        <v>42351</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>42306</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="8">
+        <v>42352</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>42307</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="8">
+        <v>42353</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>42308</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="8">
+        <v>42354</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>42309</v>
-      </c>
-      <c r="B16" s="9"/>
+      <c r="A16" s="8">
+        <v>42355</v>
+      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>42310</v>
-      </c>
-      <c r="B17" s="9"/>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>42356</v>
+      </c>
+      <c r="B17" s="7"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>42311</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>42357</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>42312</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>42358</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>42313</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>42359</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>42314</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>42315</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>42316</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>42360</v>
+      </c>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>42361</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>42362</v>
+      </c>
+      <c r="B23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B23"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -766,7 +770,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -779,7 +783,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>